--- a/tst/Resultado_da_Query_AD_CHAMADOTI.xlsx
+++ b/tst/Resultado_da_Query_AD_CHAMADOTI.xlsx
@@ -12,15 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="52">
   <si>
     <t>Resultado da Query</t>
   </si>
   <si>
-    <t>Emissão:18/10/2025 07:12:48</t>
-  </si>
-  <si>
-    <t>Total de registros:3</t>
+    <t>Emissão:18/10/2025 07:14:17</t>
+  </si>
+  <si>
+    <t>Total de registros:4</t>
   </si>
   <si>
     <t>Usuário: 0 - SUP</t>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>aa</t>
+  </si>
+  <si>
+    <t>Teste Anexo</t>
+  </si>
+  <si>
+    <t>Teste</t>
   </si>
 </sst>
 </file>
@@ -690,41 +696,122 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="39"/>
+      <c r="A7" s="3" t="n">
+        <v>11032.0</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="8" t="n">
+        <v>2002000.0</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="17"/>
+      <c r="P7" s="18" t="n">
+        <v>2.016E7</v>
+      </c>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="U7" s="23"/>
+      <c r="V7" s="24" t="n">
+        <v>45948.299305555556</v>
+      </c>
+      <c r="W7" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC7" s="31"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF7" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="36"/>
+      <c r="AI7" s="37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="39"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="39"/>
+      <c r="AG8" s="39"/>
+      <c r="AH8" s="39"/>
+      <c r="AI8" s="39"/>
     </row>
   </sheetData>
   <mergeCells>
